--- a/data/league_data/france/21/france_shot_creation.xlsx
+++ b/data/league_data/france/21/france_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/21/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479C1D9C-698F-0C4A-99E4-3834E3DE17C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFB6DA0-A2FD-AA4C-A973-5F32E79BD667}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -313,9 +313,6 @@
     <t>Leo Dubois</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>br BRA</t>
   </si>
   <si>
@@ -1826,6 +1823,9 @@
   </si>
   <si>
     <t>Dion Moise Sahi</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
@@ -2689,8 +2689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5612,10 +5612,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>29</v>
@@ -5686,7 +5686,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>23</v>
@@ -5760,7 +5760,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>94</v>
@@ -5834,7 +5834,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>46</v>
@@ -5908,7 +5908,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>23</v>
@@ -5982,7 +5982,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>64</v>
@@ -6056,7 +6056,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>23</v>
@@ -6130,7 +6130,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>23</v>
@@ -6204,7 +6204,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>23</v>
@@ -6278,7 +6278,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>23</v>
@@ -6352,10 +6352,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>29</v>
@@ -6426,7 +6426,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>23</v>
@@ -6500,7 +6500,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>70</v>
@@ -6574,10 +6574,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>29</v>
@@ -6648,10 +6648,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>79</v>
@@ -6722,7 +6722,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>23</v>
@@ -6796,7 +6796,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>23</v>
@@ -6870,7 +6870,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>58</v>
@@ -6944,7 +6944,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>23</v>
@@ -7018,10 +7018,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>60</v>
@@ -7092,7 +7092,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>23</v>
@@ -7166,7 +7166,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>23</v>
@@ -7240,7 +7240,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>70</v>
@@ -7314,7 +7314,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>23</v>
@@ -7388,7 +7388,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>28</v>
@@ -7462,7 +7462,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>23</v>
@@ -7536,7 +7536,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>84</v>
@@ -7610,7 +7610,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>23</v>
@@ -7684,10 +7684,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>79</v>
@@ -7758,10 +7758,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>20</v>
@@ -7832,10 +7832,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>60</v>
@@ -7906,7 +7906,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>23</v>
@@ -7980,13 +7980,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>32</v>
@@ -8054,10 +8054,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>29</v>
@@ -8128,7 +8128,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>23</v>
@@ -8202,7 +8202,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>82</v>
@@ -8276,7 +8276,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>23</v>
@@ -8350,7 +8350,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>23</v>
@@ -8424,7 +8424,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>23</v>
@@ -8498,7 +8498,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>23</v>
@@ -8572,7 +8572,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>46</v>
@@ -8646,7 +8646,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>28</v>
@@ -8720,7 +8720,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>84</v>
@@ -8794,7 +8794,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
@@ -8868,10 +8868,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>72</v>
@@ -8942,7 +8942,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>23</v>
@@ -9016,7 +9016,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
@@ -9090,7 +9090,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>23</v>
@@ -9164,13 +9164,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>77</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>88</v>
@@ -9238,7 +9238,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>23</v>
@@ -9312,7 +9312,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>23</v>
@@ -9386,7 +9386,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>23</v>
@@ -9460,16 +9460,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F92" s="2">
         <v>33</v>
@@ -9534,10 +9534,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>60</v>
@@ -9608,10 +9608,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>29</v>
@@ -9682,7 +9682,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>70</v>
@@ -9756,7 +9756,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>23</v>
@@ -9830,13 +9830,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>35</v>
@@ -9904,13 +9904,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>56</v>
@@ -9978,10 +9978,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>72</v>
@@ -10052,7 +10052,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>23</v>
@@ -10126,7 +10126,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>23</v>
@@ -10200,7 +10200,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>23</v>
@@ -10274,7 +10274,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>23</v>
@@ -10348,7 +10348,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>23</v>
@@ -10422,7 +10422,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>23</v>
@@ -10496,10 +10496,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>75</v>
@@ -10570,10 +10570,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>29</v>
@@ -10644,10 +10644,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C108" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>29</v>
@@ -10718,7 +10718,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>23</v>
@@ -10792,7 +10792,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>23</v>
@@ -10801,7 +10801,7 @@
         <v>79</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F110" s="2">
         <v>21</v>
@@ -10866,10 +10866,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>29</v>
@@ -10940,10 +10940,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C112" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>79</v>
@@ -11014,7 +11014,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>23</v>
@@ -11088,10 +11088,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C114" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>29</v>
@@ -11162,7 +11162,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>94</v>
@@ -11236,10 +11236,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C116" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>60</v>
@@ -11310,7 +11310,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>46</v>
@@ -11384,7 +11384,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>84</v>
@@ -11458,7 +11458,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>23</v>
@@ -11532,7 +11532,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
@@ -11541,7 +11541,7 @@
         <v>29</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F120" s="2">
         <v>24</v>
@@ -11606,7 +11606,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>23</v>
@@ -11680,10 +11680,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>29</v>
@@ -11754,7 +11754,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>23</v>
@@ -11828,10 +11828,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C124" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>75</v>
@@ -11902,10 +11902,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>72</v>
@@ -11976,10 +11976,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>29</v>
@@ -12050,10 +12050,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>72</v>
@@ -12124,7 +12124,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>23</v>
@@ -12198,7 +12198,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>23</v>
@@ -12272,13 +12272,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="D130" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>90</v>
@@ -12346,10 +12346,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C131" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="C131" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>72</v>
@@ -12420,10 +12420,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>72</v>
@@ -12494,7 +12494,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>58</v>
@@ -12568,13 +12568,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E134" s="2" t="s">
         <v>73</v>
@@ -12642,7 +12642,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>84</v>
@@ -12716,7 +12716,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>23</v>
@@ -12790,7 +12790,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>23</v>
@@ -12864,7 +12864,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>23</v>
@@ -12938,7 +12938,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>23</v>
@@ -13012,7 +13012,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>23</v>
@@ -13086,10 +13086,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>29</v>
@@ -13160,7 +13160,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>23</v>
@@ -13234,10 +13234,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>20</v>
@@ -13308,10 +13308,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C144" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>79</v>
@@ -13382,7 +13382,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>84</v>
@@ -13456,7 +13456,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>23</v>
@@ -13530,7 +13530,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>82</v>
@@ -13604,10 +13604,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>29</v>
@@ -13678,16 +13678,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F149" s="2">
         <v>26</v>
@@ -13752,10 +13752,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>29</v>
@@ -13826,7 +13826,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>23</v>
@@ -13900,7 +13900,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>23</v>
@@ -13974,10 +13974,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>29</v>
@@ -14048,7 +14048,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>23</v>
@@ -14122,7 +14122,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
@@ -14196,10 +14196,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>79</v>
@@ -14270,7 +14270,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>23</v>
@@ -14344,7 +14344,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>23</v>
@@ -14418,7 +14418,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>23</v>
@@ -14492,7 +14492,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>23</v>
@@ -14566,10 +14566,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>79</v>
@@ -14640,10 +14640,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>72</v>
@@ -14714,7 +14714,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>23</v>
@@ -14788,10 +14788,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>60</v>
@@ -14862,10 +14862,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C165" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>29</v>
@@ -14936,7 +14936,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>23</v>
@@ -15010,7 +15010,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>23</v>
@@ -15084,7 +15084,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>23</v>
@@ -15158,7 +15158,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>23</v>
@@ -15232,10 +15232,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C170" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>79</v>
@@ -15306,7 +15306,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>19</v>
@@ -15380,7 +15380,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>94</v>
@@ -15454,7 +15454,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>23</v>
@@ -15528,7 +15528,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>82</v>
@@ -15602,13 +15602,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>65</v>
@@ -15676,10 +15676,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>29</v>
@@ -15750,7 +15750,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>82</v>
@@ -15824,7 +15824,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>23</v>
@@ -15898,10 +15898,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C179" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>79</v>
@@ -15972,10 +15972,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>53</v>
@@ -16046,7 +16046,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -16120,7 +16120,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>23</v>
@@ -16194,10 +16194,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>20</v>
@@ -16268,7 +16268,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>23</v>
@@ -16342,7 +16342,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>23</v>
@@ -16416,7 +16416,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>19</v>
@@ -16425,7 +16425,7 @@
         <v>60</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F186" s="2">
         <v>32</v>
@@ -16490,16 +16490,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F187" s="2">
         <v>30</v>
@@ -16564,7 +16564,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>23</v>
@@ -16638,7 +16638,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>23</v>
@@ -16712,7 +16712,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>23</v>
@@ -16786,10 +16786,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C191" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="C191" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>75</v>
@@ -16860,10 +16860,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>29</v>
@@ -16934,7 +16934,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>23</v>
@@ -17008,7 +17008,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>23</v>
@@ -17082,7 +17082,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>23</v>
@@ -17156,7 +17156,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>34</v>
@@ -17230,7 +17230,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>23</v>
@@ -17304,7 +17304,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>23</v>
@@ -17378,7 +17378,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>23</v>
@@ -17452,7 +17452,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>23</v>
@@ -17526,7 +17526,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>23</v>
@@ -17600,10 +17600,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>72</v>
@@ -17674,7 +17674,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>94</v>
@@ -17748,7 +17748,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>23</v>
@@ -17822,7 +17822,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>70</v>
@@ -17896,7 +17896,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>23</v>
@@ -17970,7 +17970,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>23</v>
@@ -18044,7 +18044,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>23</v>
@@ -18118,16 +18118,16 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C209" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F209" s="2">
         <v>20</v>
@@ -18192,7 +18192,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>82</v>
@@ -18266,7 +18266,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>49</v>
@@ -18275,7 +18275,7 @@
         <v>29</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F211" s="2">
         <v>20</v>
@@ -18340,7 +18340,7 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>82</v>
@@ -18414,7 +18414,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>23</v>
@@ -18488,7 +18488,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>23</v>
@@ -18562,7 +18562,7 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>84</v>
@@ -18636,10 +18636,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>72</v>
@@ -18710,7 +18710,7 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>19</v>
@@ -18784,7 +18784,7 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>23</v>
@@ -18858,7 +18858,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>23</v>
@@ -18932,7 +18932,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>34</v>
@@ -19006,10 +19006,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>79</v>
@@ -19080,7 +19080,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>64</v>
@@ -19154,16 +19154,16 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F223" s="2">
         <v>23</v>
@@ -19228,7 +19228,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>23</v>
@@ -19302,10 +19302,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C225" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>53</v>
@@ -19376,7 +19376,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>23</v>
@@ -19450,7 +19450,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>23</v>
@@ -19524,7 +19524,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>94</v>
@@ -19598,10 +19598,10 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>29</v>
@@ -19672,7 +19672,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>94</v>
@@ -19681,7 +19681,7 @@
         <v>72</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F230" s="2">
         <v>30</v>
@@ -19746,7 +19746,7 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>19</v>
@@ -19820,7 +19820,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>23</v>
@@ -19894,7 +19894,7 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>23</v>
@@ -19968,10 +19968,10 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>29</v>
@@ -20042,10 +20042,10 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>72</v>
@@ -20116,7 +20116,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>34</v>
@@ -20190,16 +20190,16 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F237" s="2">
         <v>29</v>
@@ -20264,7 +20264,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>23</v>
@@ -20338,7 +20338,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>23</v>
@@ -20412,7 +20412,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>23</v>
@@ -20486,10 +20486,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>29</v>
@@ -20560,10 +20560,10 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>72</v>
@@ -20634,7 +20634,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>94</v>
@@ -20643,7 +20643,7 @@
         <v>29</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F243" s="2">
         <v>24</v>
@@ -20708,7 +20708,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>23</v>
@@ -20782,16 +20782,16 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F245" s="2">
         <v>27</v>
@@ -20856,7 +20856,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>23</v>
@@ -20930,10 +20930,10 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C247" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>29</v>
@@ -21004,10 +21004,10 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>29</v>
@@ -21078,7 +21078,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>34</v>
@@ -21152,7 +21152,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>94</v>
@@ -21226,10 +21226,10 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="C251" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>29</v>
@@ -21300,7 +21300,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>23</v>
@@ -21374,7 +21374,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>34</v>
@@ -21383,7 +21383,7 @@
         <v>53</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F253" s="2">
         <v>28</v>
@@ -21448,16 +21448,16 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F254" s="2">
         <v>28</v>
@@ -21522,10 +21522,10 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="C255" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>29</v>
@@ -21596,7 +21596,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>23</v>
@@ -21670,7 +21670,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>23</v>
@@ -21744,7 +21744,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>23</v>
@@ -21818,7 +21818,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>23</v>
@@ -21827,7 +21827,7 @@
         <v>29</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F259" s="2">
         <v>21</v>
@@ -21892,16 +21892,16 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F260" s="2">
         <v>27</v>
@@ -21966,7 +21966,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>84</v>
@@ -22040,7 +22040,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>23</v>
@@ -22114,7 +22114,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>23</v>
@@ -22188,7 +22188,7 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>23</v>
@@ -22262,7 +22262,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>23</v>
@@ -22336,7 +22336,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>70</v>
@@ -22410,7 +22410,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>23</v>
@@ -22484,16 +22484,16 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>60</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F268" s="2">
         <v>28</v>
@@ -22558,7 +22558,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>23</v>
@@ -22632,10 +22632,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>29</v>
@@ -22706,10 +22706,10 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>79</v>
@@ -22780,7 +22780,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>19</v>
@@ -22789,7 +22789,7 @@
         <v>72</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F272" s="2">
         <v>26</v>
@@ -22854,7 +22854,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>23</v>
@@ -22928,7 +22928,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>23</v>
@@ -23002,10 +23002,10 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>75</v>
@@ -23076,7 +23076,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>23</v>
@@ -23085,7 +23085,7 @@
         <v>29</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F276" s="2">
         <v>27</v>
@@ -23150,7 +23150,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>34</v>
@@ -23224,7 +23224,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>94</v>
@@ -23298,10 +23298,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>29</v>
@@ -23372,7 +23372,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>94</v>
@@ -23446,7 +23446,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>23</v>
@@ -23520,7 +23520,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>82</v>
@@ -23594,7 +23594,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>23</v>
@@ -23668,7 +23668,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>23</v>
@@ -23742,7 +23742,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>23</v>
@@ -23816,7 +23816,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>23</v>
@@ -23890,10 +23890,10 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C287" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="C287" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>79</v>
@@ -23964,7 +23964,7 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>23</v>
@@ -24038,7 +24038,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>23</v>
@@ -24112,7 +24112,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>23</v>
@@ -24186,7 +24186,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>94</v>
@@ -24260,7 +24260,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>34</v>
@@ -24334,7 +24334,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>70</v>
@@ -24408,7 +24408,7 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>41</v>
@@ -24482,7 +24482,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>23</v>
@@ -24556,7 +24556,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>23</v>
@@ -24630,7 +24630,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>23</v>
@@ -24704,7 +24704,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>23</v>
@@ -24778,7 +24778,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>84</v>
@@ -24852,7 +24852,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>94</v>
@@ -24926,7 +24926,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>23</v>
@@ -25000,7 +25000,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>23</v>
@@ -25074,7 +25074,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>23</v>
@@ -25148,10 +25148,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>29</v>
@@ -25222,10 +25222,10 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C305" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="C305" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>29</v>
@@ -25296,7 +25296,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>94</v>
@@ -25370,10 +25370,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>60</v>
@@ -25444,10 +25444,10 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>20</v>
@@ -25518,7 +25518,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>23</v>
@@ -25592,7 +25592,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>19</v>
@@ -25601,7 +25601,7 @@
         <v>79</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F310" s="2">
         <v>27</v>
@@ -25666,7 +25666,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>23</v>
@@ -25740,10 +25740,10 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>29</v>
@@ -25814,7 +25814,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>82</v>
@@ -25888,10 +25888,10 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C314" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>75</v>
@@ -25962,16 +25962,16 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F315" s="2">
         <v>26</v>
@@ -26036,7 +26036,7 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>23</v>
@@ -26110,10 +26110,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>29</v>
@@ -26184,7 +26184,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>84</v>
@@ -26258,7 +26258,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>23</v>
@@ -26332,7 +26332,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>23</v>
@@ -26406,7 +26406,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>23</v>
@@ -26480,7 +26480,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>46</v>
@@ -26554,10 +26554,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>72</v>
@@ -26628,7 +26628,7 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>94</v>
@@ -26702,10 +26702,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>29</v>
@@ -26776,7 +26776,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>82</v>
@@ -26850,7 +26850,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>23</v>
@@ -26924,10 +26924,10 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>60</v>
@@ -26998,10 +26998,10 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>79</v>
@@ -27072,10 +27072,10 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>60</v>
@@ -27146,13 +27146,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E331" s="2" t="s">
         <v>21</v>
@@ -27220,7 +27220,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>23</v>
@@ -27294,7 +27294,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>23</v>
@@ -27368,7 +27368,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>23</v>
@@ -27442,7 +27442,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>23</v>
@@ -27516,7 +27516,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>23</v>
@@ -27590,7 +27590,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>23</v>
@@ -27664,7 +27664,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>23</v>
@@ -27738,10 +27738,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>72</v>
@@ -27812,7 +27812,7 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>82</v>
@@ -27886,10 +27886,10 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C341" s="2" t="s">
         <v>436</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>437</v>
       </c>
       <c r="D341" s="2" t="s">
         <v>60</v>
@@ -27960,7 +27960,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>34</v>
@@ -28034,10 +28034,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>72</v>
@@ -28108,7 +28108,7 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>23</v>
@@ -28182,7 +28182,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>23</v>
@@ -28256,7 +28256,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>23</v>
@@ -28330,7 +28330,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>84</v>
@@ -28404,7 +28404,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>23</v>
@@ -28478,7 +28478,7 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>23</v>
@@ -28552,7 +28552,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>23</v>
@@ -28626,7 +28626,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>23</v>
@@ -28700,10 +28700,10 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>20</v>
@@ -28774,16 +28774,16 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F353" s="2">
         <v>26</v>
@@ -28848,7 +28848,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>64</v>
@@ -28922,10 +28922,10 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C355" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>60</v>
@@ -28996,10 +28996,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>79</v>
@@ -29070,10 +29070,10 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>29</v>
@@ -29144,10 +29144,10 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>75</v>
@@ -29218,7 +29218,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>23</v>
@@ -29292,7 +29292,7 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>23</v>
@@ -29366,10 +29366,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C361" s="2" t="s">
         <v>458</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>459</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>29</v>
@@ -29440,13 +29440,13 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E362" s="2" t="s">
         <v>54</v>
@@ -29514,7 +29514,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>64</v>
@@ -29588,7 +29588,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>23</v>
@@ -29662,7 +29662,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>94</v>
@@ -29736,10 +29736,10 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D366" s="2" t="s">
         <v>29</v>
@@ -29810,7 +29810,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>84</v>
@@ -29884,10 +29884,10 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>29</v>
@@ -29958,7 +29958,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>23</v>
@@ -30032,10 +30032,10 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>75</v>
@@ -30106,7 +30106,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>23</v>
@@ -30180,13 +30180,13 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E372" s="2" t="s">
         <v>44</v>
@@ -30254,7 +30254,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>94</v>
@@ -30328,7 +30328,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>94</v>
@@ -30402,7 +30402,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>70</v>
@@ -30476,7 +30476,7 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>23</v>
@@ -30550,7 +30550,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>23</v>
@@ -30624,7 +30624,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>49</v>
@@ -30698,7 +30698,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>41</v>
@@ -30772,7 +30772,7 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>23</v>
@@ -30846,7 +30846,7 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>23</v>
@@ -30920,7 +30920,7 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>23</v>
@@ -30994,7 +30994,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>23</v>
@@ -31068,7 +31068,7 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>70</v>
@@ -31142,7 +31142,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>23</v>
@@ -31216,7 +31216,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>23</v>
@@ -31290,7 +31290,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>23</v>
@@ -31364,10 +31364,10 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="C388" s="2" t="s">
         <v>486</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>487</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>60</v>
@@ -31438,10 +31438,10 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>29</v>
@@ -31512,7 +31512,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>23</v>
@@ -31586,7 +31586,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>77</v>
@@ -31660,10 +31660,10 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>60</v>
@@ -31734,7 +31734,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>23</v>
@@ -31808,7 +31808,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>23</v>
@@ -31882,7 +31882,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>46</v>
@@ -31956,10 +31956,10 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>495</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>496</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>60</v>
@@ -32030,10 +32030,10 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C397" s="2" t="s">
         <v>497</v>
-      </c>
-      <c r="C397" s="2" t="s">
-        <v>498</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>79</v>
@@ -32104,7 +32104,7 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>23</v>
@@ -32178,10 +32178,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>29</v>
@@ -32252,7 +32252,7 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>23</v>
@@ -32326,7 +32326,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>46</v>
@@ -32400,7 +32400,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>23</v>
@@ -32474,7 +32474,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>23</v>
@@ -32548,7 +32548,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>23</v>
@@ -32622,7 +32622,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>23</v>
@@ -32696,7 +32696,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>23</v>
@@ -32770,7 +32770,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>94</v>
@@ -32844,10 +32844,10 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="C408" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="C408" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>72</v>
@@ -32918,7 +32918,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>94</v>
@@ -32992,7 +32992,7 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>23</v>
@@ -33066,7 +33066,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>23</v>
@@ -33140,7 +33140,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>82</v>
@@ -33214,7 +33214,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>94</v>
@@ -33288,7 +33288,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>70</v>
@@ -33362,7 +33362,7 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>70</v>
@@ -33436,10 +33436,10 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>60</v>
@@ -33510,7 +33510,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>58</v>
@@ -33584,7 +33584,7 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>94</v>
@@ -33658,7 +33658,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>23</v>
@@ -33667,7 +33667,7 @@
         <v>29</v>
       </c>
       <c r="E419" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F419" s="2">
         <v>17</v>
@@ -33732,10 +33732,10 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>29</v>
@@ -33806,7 +33806,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>23</v>
@@ -33880,7 +33880,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>23</v>
@@ -33954,10 +33954,10 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C423" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D423" s="2" t="s">
         <v>75</v>
@@ -34028,7 +34028,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>46</v>
@@ -34102,7 +34102,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>23</v>
@@ -34176,10 +34176,10 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C426" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D426" s="2" t="s">
         <v>72</v>
@@ -34250,10 +34250,10 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C427" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D427" s="2" t="s">
         <v>29</v>
@@ -34324,7 +34324,7 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C428" s="2" t="s">
         <v>23</v>
@@ -34398,7 +34398,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>82</v>
@@ -34472,10 +34472,10 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>29</v>
@@ -34546,7 +34546,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>23</v>
@@ -34620,10 +34620,10 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C432" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D432" s="2" t="s">
         <v>75</v>
@@ -34694,7 +34694,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>46</v>
@@ -34768,7 +34768,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>23</v>
@@ -34842,7 +34842,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>23</v>
@@ -34916,7 +34916,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>23</v>
@@ -34990,13 +34990,13 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E437" s="2" t="s">
         <v>44</v>
@@ -35064,7 +35064,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>23</v>
@@ -35138,7 +35138,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>70</v>
@@ -35212,13 +35212,13 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="C440" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>542</v>
-      </c>
       <c r="D440" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E440" s="2" t="s">
         <v>67</v>
@@ -35286,7 +35286,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>23</v>
@@ -35360,7 +35360,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>23</v>
@@ -35434,7 +35434,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>23</v>
@@ -35508,10 +35508,10 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="C444" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="C444" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>29</v>
@@ -35582,7 +35582,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>23</v>
@@ -35656,7 +35656,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>23</v>
@@ -35730,7 +35730,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>23</v>
@@ -35804,10 +35804,10 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D448" s="2" t="s">
         <v>29</v>
@@ -35878,10 +35878,10 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D449" s="2" t="s">
         <v>72</v>
@@ -35952,7 +35952,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>94</v>
@@ -36026,7 +36026,7 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C451" s="2" t="s">
         <v>34</v>
@@ -36100,7 +36100,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>23</v>
@@ -36174,10 +36174,10 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D453" s="2" t="s">
         <v>60</v>
@@ -36248,7 +36248,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>58</v>
@@ -36322,7 +36322,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>49</v>
@@ -36396,7 +36396,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>23</v>
@@ -36470,7 +36470,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>23</v>
@@ -36544,7 +36544,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>23</v>
@@ -36618,16 +36618,16 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C459" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D459" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F459" s="2">
         <v>27</v>
@@ -36692,7 +36692,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>23</v>
@@ -36766,7 +36766,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>23</v>
@@ -36840,7 +36840,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>23</v>
@@ -36914,7 +36914,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>23</v>
@@ -36988,10 +36988,10 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D464" s="2" t="s">
         <v>29</v>
@@ -37062,7 +37062,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>64</v>
@@ -37071,7 +37071,7 @@
         <v>60</v>
       </c>
       <c r="E465" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F465" s="2">
         <v>17</v>
@@ -37136,7 +37136,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>23</v>
@@ -37210,10 +37210,10 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D467" s="2" t="s">
         <v>72</v>
@@ -37284,7 +37284,7 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C468" s="2" t="s">
         <v>23</v>
@@ -37358,7 +37358,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>34</v>
@@ -37432,7 +37432,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>70</v>
@@ -37506,10 +37506,10 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>29</v>
@@ -37580,7 +37580,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>23</v>
@@ -37654,7 +37654,7 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C473" s="2" t="s">
         <v>94</v>
@@ -37728,10 +37728,10 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C474" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D474" s="2" t="s">
         <v>79</v>
@@ -37802,7 +37802,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>23</v>
@@ -37876,7 +37876,7 @@
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>23</v>
@@ -37950,7 +37950,7 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C477" s="2" t="s">
         <v>23</v>
@@ -38024,7 +38024,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>23</v>
@@ -38098,7 +38098,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>23</v>
@@ -38172,13 +38172,13 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>94</v>
       </c>
       <c r="D480" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E480" s="2" t="s">
         <v>44</v>
@@ -38246,7 +38246,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>23</v>
@@ -38320,7 +38320,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>23</v>
@@ -38394,7 +38394,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>23</v>
@@ -38468,7 +38468,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>70</v>
@@ -38542,13 +38542,13 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D485" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E485" s="2" t="s">
         <v>30</v>
@@ -38616,13 +38616,13 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D486" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E486" s="2" t="s">
         <v>30</v>
@@ -38690,7 +38690,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>23</v>
@@ -38764,10 +38764,10 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="C488" s="2" t="s">
         <v>588</v>
-      </c>
-      <c r="C488" s="2" t="s">
-        <v>589</v>
       </c>
       <c r="D488" s="2" t="s">
         <v>20</v>
@@ -38838,7 +38838,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>23</v>
@@ -38912,10 +38912,10 @@
         <v>489</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D490" s="2" t="s">
         <v>72</v>
@@ -38986,7 +38986,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>23</v>
@@ -39060,7 +39060,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>23</v>
@@ -39134,10 +39134,10 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C493" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D493" s="2" t="s">
         <v>29</v>
@@ -39208,13 +39208,13 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D494" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E494" s="2" t="s">
         <v>73</v>
@@ -39282,16 +39282,16 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C495" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D495" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E495" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F495" s="2">
         <v>20</v>
@@ -39356,7 +39356,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>23</v>
@@ -39430,7 +39430,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>23</v>
@@ -39504,10 +39504,10 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C498" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D498" s="2" t="s">
         <v>20</v>
@@ -39578,7 +39578,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>94</v>
@@ -39652,7 +39652,7 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C500" s="2" t="s">
         <v>84</v>
